--- a/output/damage/BRN_osm_tc__CNRM-CM6-1-HR_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc__CNRM-CM6-1-HR_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0005781436533087896</v>
+        <v>3.489280838401144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004336077399815922</v>
+        <v>2.616960628800859</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007226795666359871</v>
+        <v>4.361601048001431</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001156287306617579</v>
+        <v>6.978561676802289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008672154799631845</v>
+        <v>5.233921257601717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001445359133271974</v>
+        <v>8.723202096002861</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002890718266543948</v>
+        <v>17.44640419200572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002168038699907961</v>
+        <v>13.08480314400429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003613397833179936</v>
+        <v>21.80800524000716</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.14939385796091e-08</v>
+        <v>0.006133490391329138</v>
       </c>
       <c r="F5" t="n">
-        <v>8.620453934706829e-09</v>
+        <v>0.004600117793496854</v>
       </c>
       <c r="G5" t="n">
-        <v>1.436742322451138e-08</v>
+        <v>0.007666862989161424</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.298787715921821e-08</v>
+        <v>0.01226698078265828</v>
       </c>
       <c r="F6" t="n">
-        <v>1.724090786941366e-08</v>
+        <v>0.009200235586993708</v>
       </c>
       <c r="G6" t="n">
-        <v>2.873484644902277e-08</v>
+        <v>0.01533372597832285</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.746969289804553e-08</v>
+        <v>0.0306674519566457</v>
       </c>
       <c r="F7" t="n">
-        <v>4.310226967353415e-08</v>
+        <v>0.02300058896748427</v>
       </c>
       <c r="G7" t="n">
-        <v>7.183711612255693e-08</v>
+        <v>0.03833431494580712</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.57871921577967e-09</v>
+        <v>0.0028398907044721</v>
       </c>
       <c r="F8" t="n">
-        <v>6.434039411834753e-09</v>
+        <v>0.002129918028354075</v>
       </c>
       <c r="G8" t="n">
-        <v>1.072339901972459e-08</v>
+        <v>0.003549863380590125</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.715743843155934e-08</v>
+        <v>0.005679781408944201</v>
       </c>
       <c r="F9" t="n">
-        <v>1.286807882366951e-08</v>
+        <v>0.004259836056708151</v>
       </c>
       <c r="G9" t="n">
-        <v>2.144679803944918e-08</v>
+        <v>0.007099726761180251</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.289359607889836e-08</v>
+        <v>0.0141994535223605</v>
       </c>
       <c r="F10" t="n">
-        <v>3.217019705917376e-08</v>
+        <v>0.01064959014177038</v>
       </c>
       <c r="G10" t="n">
-        <v>5.361699509862295e-08</v>
+        <v>0.01774931690295063</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.005701112910406e-08</v>
+        <v>0.004928447988531788</v>
       </c>
       <c r="F11" t="n">
-        <v>3.754275834682805e-08</v>
+        <v>0.003696335991398842</v>
       </c>
       <c r="G11" t="n">
-        <v>6.257126391138008e-08</v>
+        <v>0.006160559985664736</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.001140222582081e-07</v>
+        <v>0.009856895977063577</v>
       </c>
       <c r="F12" t="n">
-        <v>7.508551669365611e-08</v>
+        <v>0.007392671982797683</v>
       </c>
       <c r="G12" t="n">
-        <v>1.251425278227602e-07</v>
+        <v>0.01232111997132947</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.502850556455203e-07</v>
+        <v>0.02464223994265894</v>
       </c>
       <c r="F13" t="n">
-        <v>1.877137917341403e-07</v>
+        <v>0.01848167995699421</v>
       </c>
       <c r="G13" t="n">
-        <v>3.128563195569004e-07</v>
+        <v>0.03080279992832368</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.700829234578027e-09</v>
+        <v>0.001053510919551839</v>
       </c>
       <c r="F14" t="n">
-        <v>4.27562192593352e-09</v>
+        <v>0.0007901331896638796</v>
       </c>
       <c r="G14" t="n">
-        <v>7.126036543222533e-09</v>
+        <v>0.001316888649439799</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.140165846915605e-08</v>
+        <v>0.002107021839103679</v>
       </c>
       <c r="F15" t="n">
-        <v>8.55124385186704e-09</v>
+        <v>0.001580266379327759</v>
       </c>
       <c r="G15" t="n">
-        <v>1.425207308644507e-08</v>
+        <v>0.002633777298879598</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.850414617289013e-08</v>
+        <v>0.005267554597759197</v>
       </c>
       <c r="F16" t="n">
-        <v>2.13781096296676e-08</v>
+        <v>0.003950665948319398</v>
       </c>
       <c r="G16" t="n">
-        <v>3.563018271611267e-08</v>
+        <v>0.006584443247198997</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>319302.8988816916</v>
+        <v>58476.47046978514</v>
       </c>
       <c r="F17" t="n">
-        <v>239477.1741612687</v>
+        <v>43857.35285233886</v>
       </c>
       <c r="G17" t="n">
-        <v>399128.6236021146</v>
+        <v>73095.58808723143</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>638605.7977633831</v>
+        <v>155992.5844344827</v>
       </c>
       <c r="F18" t="n">
-        <v>478954.3483225374</v>
+        <v>116994.438325862</v>
       </c>
       <c r="G18" t="n">
-        <v>798257.2472042291</v>
+        <v>194990.7305431034</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1596514.494408458</v>
+        <v>62692.8825379048</v>
       </c>
       <c r="F19" t="n">
-        <v>1197385.870806344</v>
+        <v>47019.6619034286</v>
       </c>
       <c r="G19" t="n">
-        <v>1995643.118010573</v>
+        <v>78366.103172381</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>268224.8889553284</v>
+        <v>39029.13921684338</v>
       </c>
       <c r="F20" t="n">
-        <v>201168.6667164963</v>
+        <v>29271.85441263254</v>
       </c>
       <c r="G20" t="n">
-        <v>335281.1111941605</v>
+        <v>48786.42402105423</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>536449.7779106568</v>
+        <v>85325.63774160721</v>
       </c>
       <c r="F21" t="n">
-        <v>402337.3334329925</v>
+        <v>63994.22830620541</v>
       </c>
       <c r="G21" t="n">
-        <v>670562.222388321</v>
+        <v>106657.047177009</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1341124.444776642</v>
+        <v>246203.1698889963</v>
       </c>
       <c r="F22" t="n">
-        <v>1005843.333582481</v>
+        <v>184652.3774167472</v>
       </c>
       <c r="G22" t="n">
-        <v>1676405.555970802</v>
+        <v>307753.9623612454</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F23" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G23" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F24" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G24" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F25" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G25" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F32" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F37" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F38" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G38" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F39" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G39" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F40" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G40" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F41" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G41" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F42" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G42" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F43" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G43" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F44" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G44" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F45" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G45" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F46" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G46" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G49" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F52" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G52" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F53" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G53" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F54" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G54" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F56" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G56" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G57" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F58" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G58" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F59" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G59" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F60" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G60" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F61" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G61" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F62" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G62" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F63" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G63" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F64" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G64" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F65" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G65" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F66" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G66" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F67" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G67" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G68" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F69" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G69" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G70" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F71" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G71" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F72" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F73" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G73" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F74" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G74" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F75" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F77" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G77" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F78" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G78" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F79" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G79" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F80" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G80" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F81" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G81" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F82" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G82" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F83" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G83" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F84" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G84" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F85" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G85" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.360550573491658e-08</v>
+        <v>0.0006468694248394217</v>
       </c>
       <c r="F86" t="n">
-        <v>2.520412930118744e-08</v>
+        <v>0.0004851520686295663</v>
       </c>
       <c r="G86" t="n">
-        <v>4.200688216864574e-08</v>
+        <v>0.0008085867810492771</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6.721101146983317e-08</v>
+        <v>0.001293738849678843</v>
       </c>
       <c r="F87" t="n">
-        <v>5.040825860237489e-08</v>
+        <v>0.0009703041372591326</v>
       </c>
       <c r="G87" t="n">
-        <v>8.401376433729149e-08</v>
+        <v>0.001617173562098554</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.68027528674583e-07</v>
+        <v>0.003234347124197109</v>
       </c>
       <c r="F88" t="n">
-        <v>1.260206465059372e-07</v>
+        <v>0.002425760343147831</v>
       </c>
       <c r="G88" t="n">
-        <v>2.100344108432287e-07</v>
+        <v>0.004042933905246387</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.924927610639266e-15</v>
+        <v>1.288208175446655e-08</v>
       </c>
       <c r="F89" t="n">
-        <v>4.44369570797945e-15</v>
+        <v>9.661561315849914e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>7.406159513299085e-15</v>
+        <v>1.610260219308319e-08</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.184985522127853e-14</v>
+        <v>2.57641635089331e-08</v>
       </c>
       <c r="F90" t="n">
-        <v>8.887391415958899e-15</v>
+        <v>1.932312263169983e-08</v>
       </c>
       <c r="G90" t="n">
-        <v>1.481231902659817e-14</v>
+        <v>3.220520438616638e-08</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.962463805319634e-14</v>
+        <v>6.441040877233276e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>2.221847853989725e-14</v>
+        <v>4.830780657924956e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>3.703079756649542e-14</v>
+        <v>8.051301096541595e-08</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.619673935394582e-15</v>
+        <v>9.614060784960338e-09</v>
       </c>
       <c r="F92" t="n">
-        <v>6.464755451545938e-15</v>
+        <v>7.210545588720254e-09</v>
       </c>
       <c r="G92" t="n">
-        <v>1.077459241924323e-14</v>
+        <v>1.201757598120042e-08</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.723934787078916e-14</v>
+        <v>1.922812156992068e-08</v>
       </c>
       <c r="F93" t="n">
-        <v>1.292951090309188e-14</v>
+        <v>1.442109117744051e-08</v>
       </c>
       <c r="G93" t="n">
-        <v>2.154918483848646e-14</v>
+        <v>2.403515196240084e-08</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4.309836967697292e-14</v>
+        <v>4.807030392480169e-08</v>
       </c>
       <c r="F94" t="n">
-        <v>3.232377725772968e-14</v>
+        <v>3.605272794360127e-08</v>
       </c>
       <c r="G94" t="n">
-        <v>5.387296209621615e-14</v>
+        <v>6.008787990600211e-08</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.01753182112293e-13</v>
+        <v>5.608374623439503e-08</v>
       </c>
       <c r="F95" t="n">
-        <v>1.513148865842198e-13</v>
+        <v>4.206280967579627e-08</v>
       </c>
       <c r="G95" t="n">
-        <v>2.521914776403663e-13</v>
+        <v>7.01046827929938e-08</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4.03506364224586e-13</v>
+        <v>1.121674924687901e-07</v>
       </c>
       <c r="F96" t="n">
-        <v>3.026297731684395e-13</v>
+        <v>8.412561935159254e-08</v>
       </c>
       <c r="G96" t="n">
-        <v>5.043829552807325e-13</v>
+        <v>1.402093655859876e-07</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.008765910561465e-12</v>
+        <v>2.804187311719752e-07</v>
       </c>
       <c r="F97" t="n">
-        <v>7.565744329210987e-13</v>
+        <v>2.103140483789814e-07</v>
       </c>
       <c r="G97" t="n">
-        <v>1.260957388201832e-12</v>
+        <v>3.50523413964969e-07</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1.303176901498571e-14</v>
+        <v>6.388034992883359e-09</v>
       </c>
       <c r="F98" t="n">
-        <v>9.773826761239283e-15</v>
+        <v>4.79102624466252e-09</v>
       </c>
       <c r="G98" t="n">
-        <v>1.628971126873214e-14</v>
+        <v>7.9850437411042e-09</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2.606353802997142e-14</v>
+        <v>1.277606998576672e-08</v>
       </c>
       <c r="F99" t="n">
-        <v>1.954765352247857e-14</v>
+        <v>9.58205248932504e-09</v>
       </c>
       <c r="G99" t="n">
-        <v>3.257942253746428e-14</v>
+        <v>1.59700874822084e-08</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6.515884507492856e-14</v>
+        <v>3.19401749644168e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>4.886913380619641e-14</v>
+        <v>2.39551312233126e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>8.144855634366069e-14</v>
+        <v>3.9925218705521e-08</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>275568.0053054582</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F101" t="n">
-        <v>206676.0039790937</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G101" t="n">
-        <v>344460.0066318228</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>551136.0106109164</v>
+        <v>87905.74183040494</v>
       </c>
       <c r="F102" t="n">
-        <v>413352.0079581874</v>
+        <v>65929.30637280371</v>
       </c>
       <c r="G102" t="n">
-        <v>688920.0132636457</v>
+        <v>109882.1772880062</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1377840.026527291</v>
+        <v>3850.893139481343</v>
       </c>
       <c r="F103" t="n">
-        <v>1033380.019895468</v>
+        <v>2888.169854611006</v>
       </c>
       <c r="G103" t="n">
-        <v>1722300.033159114</v>
+        <v>4813.616424351679</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>208553.183788221</v>
+        <v>31432.94261814756</v>
       </c>
       <c r="F104" t="n">
-        <v>156414.8878411658</v>
+        <v>23574.70696361068</v>
       </c>
       <c r="G104" t="n">
-        <v>260691.4797352763</v>
+        <v>39291.17827268446</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>417106.367576442</v>
+        <v>63097.54223716274</v>
       </c>
       <c r="F105" t="n">
-        <v>312829.7756823315</v>
+        <v>47323.15667787207</v>
       </c>
       <c r="G105" t="n">
-        <v>521382.9594705526</v>
+        <v>78871.92779645344</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1042765.918941105</v>
+        <v>190867.5707174338</v>
       </c>
       <c r="F106" t="n">
-        <v>782074.4392058287</v>
+        <v>143150.6780380754</v>
       </c>
       <c r="G106" t="n">
-        <v>1303457.398676381</v>
+        <v>238584.4633967923</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F107" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G107" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F108" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G108" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F109" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G109" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F111" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G111" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F113" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F114" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G114" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F115" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G115" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F116" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G116" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F117" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F118" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G118" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F119" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G119" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F120" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F121" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G121" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F122" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G122" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F123" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G123" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F124" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G124" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F125" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G125" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F126" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G126" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F127" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G127" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F128" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G128" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F129" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G129" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F130" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G130" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F131" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G131" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F133" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G133" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F134" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G134" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F135" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G135" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F136" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G136" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F137" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G137" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F138" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G139" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F140" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G140" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G141" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F142" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G142" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F143" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G143" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F144" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G144" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F145" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G145" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F146" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G146" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F147" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G147" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F148" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G148" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5.708401526493592e-06</v>
+        <v>0.1778162131326818</v>
       </c>
       <c r="F149" t="n">
-        <v>4.281301144870195e-06</v>
+        <v>0.1333621598495114</v>
       </c>
       <c r="G149" t="n">
-        <v>7.135501908116992e-06</v>
+        <v>0.2222702664158523</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1.141680305298718e-05</v>
+        <v>0.3556324262653637</v>
       </c>
       <c r="F150" t="n">
-        <v>8.56260228974039e-06</v>
+        <v>0.2667243196990228</v>
       </c>
       <c r="G150" t="n">
-        <v>1.427100381623398e-05</v>
+        <v>0.4445405328317046</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2.854200763246797e-05</v>
+        <v>0.8890810656634093</v>
       </c>
       <c r="F151" t="n">
-        <v>2.140650572435097e-05</v>
+        <v>0.6668107992475569</v>
       </c>
       <c r="G151" t="n">
-        <v>3.567750954058497e-05</v>
+        <v>1.111351332079262</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1.338385614990605e-11</v>
+        <v>8.626262942900571e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>1.003789211242954e-11</v>
+        <v>6.469697207175429e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>1.672982018738256e-11</v>
+        <v>0.0001078282867862571</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2.67677122998121e-11</v>
+        <v>0.0001725252588580114</v>
       </c>
       <c r="F153" t="n">
-        <v>2.007578422485907e-11</v>
+        <v>0.0001293939441435086</v>
       </c>
       <c r="G153" t="n">
-        <v>3.345964037476513e-11</v>
+        <v>0.0002156565735725143</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6.691928074953026e-11</v>
+        <v>0.0004313131471450286</v>
       </c>
       <c r="F154" t="n">
-        <v>5.018946056214769e-11</v>
+        <v>0.0003234848603587714</v>
       </c>
       <c r="G154" t="n">
-        <v>8.364910093691282e-11</v>
+        <v>0.0005391414339312858</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.330362279471975e-11</v>
+        <v>4.466841347348416e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>9.977717096039816e-12</v>
+        <v>3.350131010511312e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>1.662952849339969e-11</v>
+        <v>5.58355168418552e-05</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.660724558943951e-11</v>
+        <v>8.933682694696831e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>1.995543419207963e-11</v>
+        <v>6.700262021022624e-05</v>
       </c>
       <c r="G156" t="n">
-        <v>3.325905698679939e-11</v>
+        <v>0.0001116710336837104</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6.651811397359878e-11</v>
+        <v>0.0002233420673674208</v>
       </c>
       <c r="F157" t="n">
-        <v>4.988858548019908e-11</v>
+        <v>0.0001675065505255656</v>
       </c>
       <c r="G157" t="n">
-        <v>8.314764246699846e-11</v>
+        <v>0.000279177584209276</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.4394834109492e-10</v>
+        <v>0.0001076475464953699</v>
       </c>
       <c r="F158" t="n">
-        <v>1.0796125582119e-10</v>
+        <v>8.073565987152745e-05</v>
       </c>
       <c r="G158" t="n">
-        <v>1.799354263686501e-10</v>
+        <v>0.0001345594331192124</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2.878966821898401e-10</v>
+        <v>0.0002152950929907398</v>
       </c>
       <c r="F159" t="n">
-        <v>2.1592251164238e-10</v>
+        <v>0.0001614713197430549</v>
       </c>
       <c r="G159" t="n">
-        <v>3.598708527373001e-10</v>
+        <v>0.0002691188662384248</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>7.197417054746002e-10</v>
+        <v>0.0005382377324768497</v>
       </c>
       <c r="F160" t="n">
-        <v>5.398062791059501e-10</v>
+        <v>0.0004036782993576372</v>
       </c>
       <c r="G160" t="n">
-        <v>8.996771318432503e-10</v>
+        <v>0.0006727971655960622</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.254943272639969e-11</v>
+        <v>1.902762463709781e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>9.412074544799764e-12</v>
+        <v>1.427071847782336e-05</v>
       </c>
       <c r="G161" t="n">
-        <v>1.568679090799961e-11</v>
+        <v>2.378453079637227e-05</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.509886545279937e-11</v>
+        <v>3.805524927419563e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>1.882414908959953e-11</v>
+        <v>2.854143695564672e-05</v>
       </c>
       <c r="G162" t="n">
-        <v>3.137358181599922e-11</v>
+        <v>4.756906159274454e-05</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6.274716363199844e-11</v>
+        <v>9.513812318548908e-05</v>
       </c>
       <c r="F163" t="n">
-        <v>4.706037272399883e-11</v>
+        <v>7.13535923891168e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>7.843395453999806e-11</v>
+        <v>0.0001189226539818614</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>293676.6958745827</v>
+        <v>49988.0957045918</v>
       </c>
       <c r="F164" t="n">
-        <v>220257.521905937</v>
+        <v>37491.07177844385</v>
       </c>
       <c r="G164" t="n">
-        <v>367095.8698432284</v>
+        <v>62485.11963073974</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>587353.3917491654</v>
+        <v>117043.0982995329</v>
       </c>
       <c r="F165" t="n">
-        <v>440515.043811874</v>
+        <v>87782.3237246497</v>
       </c>
       <c r="G165" t="n">
-        <v>734191.7396864567</v>
+        <v>146303.8728744162</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1468383.479372913</v>
+        <v>33572.57997745188</v>
       </c>
       <c r="F166" t="n">
-        <v>1101287.609529685</v>
+        <v>25179.43498308891</v>
       </c>
       <c r="G166" t="n">
-        <v>1835479.349216142</v>
+        <v>41965.72497181485</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>242176.2207226462</v>
+        <v>36279.36906850906</v>
       </c>
       <c r="F167" t="n">
-        <v>181632.1655419847</v>
+        <v>27209.5268013818</v>
       </c>
       <c r="G167" t="n">
-        <v>302720.2759033078</v>
+        <v>45349.21133563633</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>484352.4414452925</v>
+        <v>73677.51671742604</v>
       </c>
       <c r="F168" t="n">
-        <v>363264.3310839694</v>
+        <v>55258.13753806954</v>
       </c>
       <c r="G168" t="n">
-        <v>605440.5518066157</v>
+        <v>92096.89589678256</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1210881.103613231</v>
+        <v>227095.6749845592</v>
       </c>
       <c r="F169" t="n">
-        <v>908160.8277099235</v>
+        <v>170321.7562384194</v>
       </c>
       <c r="G169" t="n">
-        <v>1513601.379516539</v>
+        <v>283869.593730699</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F170" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G170" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F171" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G171" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F172" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G172" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F173" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G173" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F174" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G174" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F175" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G175" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F176" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G176" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F177" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G177" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F178" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G178" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F179" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G179" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G180" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G181" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F182" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G182" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F183" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F184" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G184" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F185" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G185" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F186" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G186" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F187" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G187" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F188" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G188" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F189" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G189" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F190" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G190" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2.159900215998663e-08</v>
+        <v>0.00022751878873818</v>
       </c>
       <c r="F191" t="n">
-        <v>1.619925161998998e-08</v>
+        <v>0.000170639091553635</v>
       </c>
       <c r="G191" t="n">
-        <v>2.69987526999833e-08</v>
+        <v>0.000284398485922725</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4.319800431997327e-08</v>
+        <v>0.0004550375774763599</v>
       </c>
       <c r="F192" t="n">
-        <v>3.239850323997995e-08</v>
+        <v>0.00034127818310727</v>
       </c>
       <c r="G192" t="n">
-        <v>5.39975053999666e-08</v>
+        <v>0.0005687969718454499</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1.079950107999332e-07</v>
+        <v>0.0011375939436909</v>
       </c>
       <c r="F193" t="n">
-        <v>8.099625809994989e-08</v>
+        <v>0.0008531954577681749</v>
       </c>
       <c r="G193" t="n">
-        <v>1.349937634999165e-07</v>
+        <v>0.001421992429613625</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.802430823758415e-15</v>
+        <v>4.41191531746108e-09</v>
       </c>
       <c r="F194" t="n">
-        <v>2.851823117818811e-15</v>
+        <v>3.308936488095811e-09</v>
       </c>
       <c r="G194" t="n">
-        <v>4.753038529698019e-15</v>
+        <v>5.514894146826351e-09</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.604861647516829e-15</v>
+        <v>8.82383063492216e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>5.703646235637622e-15</v>
+        <v>6.617872976191621e-09</v>
       </c>
       <c r="G195" t="n">
-        <v>9.506077059396038e-15</v>
+        <v>1.10297882936527e-08</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.901215411879208e-14</v>
+        <v>2.20595765873054e-08</v>
       </c>
       <c r="F196" t="n">
-        <v>1.425911558909406e-14</v>
+        <v>1.654468244047905e-08</v>
       </c>
       <c r="G196" t="n">
-        <v>2.37651926484901e-14</v>
+        <v>2.757447073413176e-08</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.532068974964382e-15</v>
+        <v>3.29661776543085e-09</v>
       </c>
       <c r="F197" t="n">
-        <v>4.149051731223286e-15</v>
+        <v>2.472463324073138e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>6.915086218705478e-15</v>
+        <v>4.120772206788563e-09</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1.106413794992876e-14</v>
+        <v>6.593235530861701e-09</v>
       </c>
       <c r="F198" t="n">
-        <v>8.298103462446572e-15</v>
+        <v>4.944926648146275e-09</v>
       </c>
       <c r="G198" t="n">
-        <v>1.383017243741096e-14</v>
+        <v>8.241544413577126e-09</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.766034487482191e-14</v>
+        <v>1.648308882715425e-08</v>
       </c>
       <c r="F199" t="n">
-        <v>2.074525865611643e-14</v>
+        <v>1.236231662036569e-08</v>
       </c>
       <c r="G199" t="n">
-        <v>3.457543109352739e-14</v>
+        <v>2.060386103394282e-08</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.295071845301995e-13</v>
+        <v>1.930983822681468e-08</v>
       </c>
       <c r="F200" t="n">
-        <v>9.713038839764967e-14</v>
+        <v>1.448237867011101e-08</v>
       </c>
       <c r="G200" t="n">
-        <v>1.618839806627495e-13</v>
+        <v>2.413729778351835e-08</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2.590143690603991e-13</v>
+        <v>3.861967645362936e-08</v>
       </c>
       <c r="F201" t="n">
-        <v>1.942607767952993e-13</v>
+        <v>2.896475734022202e-08</v>
       </c>
       <c r="G201" t="n">
-        <v>3.237679613254989e-13</v>
+        <v>4.827459556703669e-08</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6.475359226509979e-13</v>
+        <v>9.654919113407338e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>4.856519419882483e-13</v>
+        <v>7.241189335055504e-08</v>
       </c>
       <c r="G202" t="n">
-        <v>8.094199033137474e-13</v>
+        <v>1.206864889175917e-07</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.364544219256725e-15</v>
+        <v>2.194845662890439e-09</v>
       </c>
       <c r="F203" t="n">
-        <v>6.273408164442544e-15</v>
+        <v>1.646134247167829e-09</v>
       </c>
       <c r="G203" t="n">
-        <v>1.045568027407091e-14</v>
+        <v>2.743557078613049e-09</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.672908843851345e-14</v>
+        <v>4.389691325780877e-09</v>
       </c>
       <c r="F204" t="n">
-        <v>1.254681632888509e-14</v>
+        <v>3.292268494335658e-09</v>
       </c>
       <c r="G204" t="n">
-        <v>2.091136054814182e-14</v>
+        <v>5.487114157226097e-09</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>4.182272109628363e-14</v>
+        <v>1.097422831445219e-08</v>
       </c>
       <c r="F205" t="n">
-        <v>3.136704082221272e-14</v>
+        <v>8.230671235839146e-09</v>
       </c>
       <c r="G205" t="n">
-        <v>5.227840137035454e-14</v>
+        <v>1.371778539306524e-08</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>270481.9948534412</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F206" t="n">
-        <v>202861.4961400809</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G206" t="n">
-        <v>338102.4935668015</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>540963.9897068824</v>
+        <v>84861.59283695798</v>
       </c>
       <c r="F207" t="n">
-        <v>405722.9922801619</v>
+        <v>63646.19462771848</v>
       </c>
       <c r="G207" t="n">
-        <v>676204.9871336031</v>
+        <v>106076.9910461975</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1352409.974267206</v>
+        <v>1314.102311608873</v>
       </c>
       <c r="F208" t="n">
-        <v>1014307.480700405</v>
+        <v>985.5767337066549</v>
       </c>
       <c r="G208" t="n">
-        <v>1690512.467834008</v>
+        <v>1642.627889511092</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>196685.826066848</v>
+        <v>29403.50995584959</v>
       </c>
       <c r="F209" t="n">
-        <v>147514.369550136</v>
+        <v>22052.6324668872</v>
       </c>
       <c r="G209" t="n">
-        <v>245857.28258356</v>
+        <v>36754.387444812</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>393371.652133696</v>
+        <v>60053.39324371579</v>
       </c>
       <c r="F210" t="n">
-        <v>295028.739100272</v>
+        <v>45040.04493278685</v>
       </c>
       <c r="G210" t="n">
-        <v>491714.56516712</v>
+        <v>75066.74155464474</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>983429.13033424</v>
+        <v>173110.0349223266</v>
       </c>
       <c r="F211" t="n">
-        <v>737571.8477506799</v>
+        <v>129832.5261917449</v>
       </c>
       <c r="G211" t="n">
-        <v>1229286.4129178</v>
+        <v>216387.5436529082</v>
       </c>
     </row>
   </sheetData>
